--- a/02_config/scenario_pv_60_hp_60_ev_60_consumer_5_transition_perfect/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_consumer_5_transition_perfect/agents.xlsx
@@ -29,12 +29,12 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
   </si>
   <si>
-    <t>general/aggregated_by</t>
-  </si>
-  <si>
     <t>general/parameters/area</t>
   </si>
   <si>
@@ -1016,7 +1016,7 @@
     <t>sfh_38</t>
   </si>
   <si>
-    <t>7jgugYLzjXlgBxb</t>
+    <t>xdZNEzKBo9ZtKk5</t>
   </si>
   <si>
     <t>000018335.csv</t>
@@ -1562,7 +1562,7 @@
     <t>clustering_represented_group/agent_types</t>
   </si>
   <si>
-    <t>['sfh_30', 'sfh_3', 'sfh_34', 'sfh_17', 'sfh_33']</t>
+    <t>['sfh_33', 'sfh_10', 'sfh_17', 'sfh_14', 'sfh_29']</t>
   </si>
   <si>
     <t>[1]</t>
@@ -2832,11 +2832,11 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
-        <v>4</v>
+      <c r="G2">
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -2845,7 +2845,7 @@
         <v>2.6</v>
       </c>
       <c r="K2">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -3004,7 +3004,7 @@
         <v>60</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>373</v>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO2">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="JQ2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:295">
@@ -3368,7 +3368,7 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4</v>
       </c>
       <c r="H3">
@@ -3540,7 +3540,7 @@
         <v>50</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>373</v>
@@ -3795,7 +3795,7 @@
         <v>487</v>
       </c>
       <c r="IN3">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO3">
         <v>1</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO3">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="JQ3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:295">
@@ -3877,11 +3877,11 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
-        <v>4</v>
+      <c r="G4">
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -3890,7 +3890,7 @@
         <v>2.6</v>
       </c>
       <c r="K4">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>373</v>
@@ -4226,7 +4226,7 @@
         <v>487</v>
       </c>
       <c r="IN4">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO4">
         <v>1</v>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO4">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="JQ4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:295">
@@ -4308,11 +4308,8 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>333</v>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -4468,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>373</v>
@@ -4660,7 +4657,7 @@
         <v>487</v>
       </c>
       <c r="IN5">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO5">
         <v>1</v>
@@ -4711,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4720,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO5">
         <v>0</v>
@@ -4729,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="JQ5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:295">
@@ -4742,11 +4739,11 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
-        <v>3</v>
+      <c r="G6">
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -4755,7 +4752,7 @@
         <v>2.6</v>
       </c>
       <c r="K6">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -4914,7 +4911,7 @@
         <v>42</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>373</v>
@@ -5142,7 +5139,7 @@
         <v>487</v>
       </c>
       <c r="IN6">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO6">
         <v>1</v>
@@ -5193,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5202,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO6">
         <v>0</v>
@@ -5211,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="JQ6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:295">
@@ -5224,7 +5221,7 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
@@ -5396,7 +5393,7 @@
         <v>50</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>373</v>
@@ -5729,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5738,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO7">
         <v>0</v>
@@ -5747,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="JQ7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:295">
@@ -5760,11 +5757,11 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
-        <v>3</v>
+      <c r="G8">
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -5773,7 +5770,7 @@
         <v>2.6</v>
       </c>
       <c r="K8">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -5932,7 +5929,7 @@
         <v>90</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>373</v>
@@ -6271,7 +6268,7 @@
         <v>51</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH8">
         <v>9300</v>
@@ -6286,7 +6283,7 @@
         <v>51</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO8">
         <v>0</v>
@@ -6295,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="JQ8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR8" t="s">
         <v>501</v>
@@ -6335,7 +6332,7 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4</v>
       </c>
       <c r="H9">
@@ -6507,7 +6504,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>373</v>
@@ -6840,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6849,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO9">
         <v>0</v>
@@ -6858,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="JQ9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR9" t="s">
         <v>502</v>
@@ -6898,7 +6895,7 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4</v>
       </c>
       <c r="H10">
@@ -7055,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>373</v>
@@ -7298,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7307,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO10">
         <v>0</v>
@@ -7316,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="JQ10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:295">
@@ -7329,11 +7326,11 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
-        <v>3</v>
+      <c r="G11">
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -7342,7 +7339,7 @@
         <v>2.6</v>
       </c>
       <c r="K11">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -7501,7 +7498,7 @@
         <v>60</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>373</v>
@@ -7756,7 +7753,7 @@
         <v>487</v>
       </c>
       <c r="IN11">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO11">
         <v>1</v>
@@ -7813,7 +7810,7 @@
         <v>59</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH11">
         <v>8300</v>
@@ -7828,7 +7825,7 @@
         <v>60</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM11">
         <v>6800</v>
@@ -7843,7 +7840,7 @@
         <v>57</v>
       </c>
       <c r="JQ11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:295">
@@ -7856,11 +7853,14 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
-        <v>3</v>
+      <c r="F12" t="s">
+        <v>333</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -7869,7 +7869,7 @@
         <v>2.6</v>
       </c>
       <c r="K12">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>373</v>
@@ -8205,7 +8205,7 @@
         <v>487</v>
       </c>
       <c r="IN12">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO12">
         <v>1</v>
@@ -8256,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO12">
         <v>0</v>
@@ -8274,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="JQ12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:295">
@@ -8287,11 +8287,11 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
-        <v>3</v>
+      <c r="G13">
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -8300,7 +8300,7 @@
         <v>2.6</v>
       </c>
       <c r="K13">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -8459,7 +8459,7 @@
         <v>56</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>373</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO13">
         <v>0</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="JQ13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:295">
@@ -8823,11 +8823,11 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
-        <v>4</v>
+      <c r="G14">
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -8836,7 +8836,7 @@
         <v>2.6</v>
       </c>
       <c r="K14">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -8980,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>373</v>
@@ -9172,7 +9172,7 @@
         <v>487</v>
       </c>
       <c r="IN14">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO14">
         <v>1</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -9232,7 +9232,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO14">
         <v>0</v>
@@ -9241,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="JQ14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:295">
@@ -9254,11 +9254,11 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
-        <v>3</v>
+      <c r="G15">
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -9267,7 +9267,7 @@
         <v>2.6</v>
       </c>
       <c r="K15">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -9426,7 +9426,7 @@
         <v>49</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>373</v>
@@ -9681,7 +9681,7 @@
         <v>487</v>
       </c>
       <c r="IN15">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO15">
         <v>1</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9741,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO15">
         <v>0</v>
@@ -9750,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="JQ15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:295">
@@ -9763,11 +9763,14 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
-        <v>3</v>
+      <c r="F16" t="s">
+        <v>333</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -9776,7 +9779,7 @@
         <v>2.6</v>
       </c>
       <c r="K16">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -9920,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>373</v>
@@ -10112,7 +10115,7 @@
         <v>487</v>
       </c>
       <c r="IN16">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO16">
         <v>1</v>
@@ -10163,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -10172,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO16">
         <v>0</v>
@@ -10181,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="JQ16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:295">
@@ -10194,11 +10197,11 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
-        <v>4</v>
+      <c r="G17">
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -10207,7 +10210,7 @@
         <v>2.6</v>
       </c>
       <c r="K17">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -10351,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>373</v>
@@ -10543,7 +10546,7 @@
         <v>487</v>
       </c>
       <c r="IN17">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO17">
         <v>1</v>
@@ -10594,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10603,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO17">
         <v>0</v>
@@ -10612,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="JQ17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:295">
@@ -10625,11 +10628,11 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
-        <v>4</v>
+      <c r="G18">
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -10638,7 +10641,7 @@
         <v>2.6</v>
       </c>
       <c r="K18">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -10797,7 +10800,7 @@
         <v>50</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>373</v>
@@ -11079,7 +11082,7 @@
         <v>487</v>
       </c>
       <c r="IN18">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO18">
         <v>1</v>
@@ -11130,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -11139,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO18">
         <v>0</v>
@@ -11148,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="JQ18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:295">
@@ -11161,14 +11164,14 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" t="s">
         <v>333</v>
       </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
       <c r="H19">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -11177,7 +11180,7 @@
         <v>2.6</v>
       </c>
       <c r="K19">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -11321,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>373</v>
@@ -11513,7 +11516,7 @@
         <v>487</v>
       </c>
       <c r="IN19">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO19">
         <v>1</v>
@@ -11564,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11573,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO19">
         <v>0</v>
@@ -11582,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="JQ19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:295">
@@ -11595,7 +11598,7 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3</v>
       </c>
       <c r="H20">
@@ -11767,7 +11770,7 @@
         <v>47</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>373</v>
@@ -12022,7 +12025,7 @@
         <v>487</v>
       </c>
       <c r="IN20">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO20">
         <v>1</v>
@@ -12073,7 +12076,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -12082,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO20">
         <v>0</v>
@@ -12091,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="JQ20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:295">
@@ -12104,7 +12107,7 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3</v>
       </c>
       <c r="H21">
@@ -12276,7 +12279,7 @@
         <v>45</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>373</v>
@@ -12582,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12591,7 +12594,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO21">
         <v>0</v>
@@ -12600,7 +12603,7 @@
         <v>0</v>
       </c>
       <c r="JQ21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:295">
@@ -12613,11 +12616,11 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
-        <v>3</v>
+      <c r="G22">
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -12626,7 +12629,7 @@
         <v>2.6</v>
       </c>
       <c r="K22">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -12785,7 +12788,7 @@
         <v>90</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>373</v>
@@ -13040,7 +13043,7 @@
         <v>487</v>
       </c>
       <c r="IN22">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO22">
         <v>1</v>
@@ -13097,7 +13100,7 @@
         <v>48</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -13106,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO22">
         <v>0</v>
@@ -13115,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="JQ22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:295">
@@ -13128,7 +13131,7 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
@@ -13300,7 +13303,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>373</v>
@@ -13582,7 +13585,7 @@
         <v>487</v>
       </c>
       <c r="IN23">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO23">
         <v>1</v>
@@ -13639,7 +13642,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13654,7 +13657,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO23">
         <v>0</v>
@@ -13663,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="JQ23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR23" t="s">
         <v>503</v>
@@ -13703,7 +13706,7 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>3</v>
       </c>
       <c r="H24">
@@ -13875,7 +13878,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>373</v>
@@ -14130,7 +14133,7 @@
         <v>487</v>
       </c>
       <c r="IN24">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO24">
         <v>1</v>
@@ -14181,7 +14184,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -14190,7 +14193,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO24">
         <v>0</v>
@@ -14199,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="JQ24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:295">
@@ -14212,7 +14215,7 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3</v>
       </c>
       <c r="H25">
@@ -14384,7 +14387,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>373</v>
@@ -14639,7 +14642,7 @@
         <v>487</v>
       </c>
       <c r="IN25">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO25">
         <v>1</v>
@@ -14690,7 +14693,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14699,7 +14702,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO25">
         <v>0</v>
@@ -14708,7 +14711,7 @@
         <v>0</v>
       </c>
       <c r="JQ25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:295">
@@ -14721,11 +14724,11 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
-        <v>4</v>
+      <c r="G26">
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -14734,7 +14737,7 @@
         <v>2.6</v>
       </c>
       <c r="K26">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -14893,7 +14896,7 @@
         <v>52</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>373</v>
@@ -15175,7 +15178,7 @@
         <v>487</v>
       </c>
       <c r="IN26">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO26">
         <v>1</v>
@@ -15232,7 +15235,7 @@
         <v>52</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -15241,7 +15244,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO26">
         <v>0</v>
@@ -15250,7 +15253,7 @@
         <v>0</v>
       </c>
       <c r="JQ26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:295">
@@ -15263,11 +15266,11 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
-        <v>4</v>
+      <c r="G27">
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -15276,7 +15279,7 @@
         <v>2.6</v>
       </c>
       <c r="K27">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -15420,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>373</v>
@@ -15612,7 +15615,7 @@
         <v>487</v>
       </c>
       <c r="IN27">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO27">
         <v>1</v>
@@ -15663,7 +15666,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15672,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO27">
         <v>0</v>
@@ -15681,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="JQ27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:295">
@@ -15694,7 +15697,7 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>4</v>
       </c>
       <c r="H28">
@@ -15866,7 +15869,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>373</v>
@@ -16148,7 +16151,7 @@
         <v>487</v>
       </c>
       <c r="IN28">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO28">
         <v>1</v>
@@ -16205,7 +16208,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -16214,7 +16217,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO28">
         <v>0</v>
@@ -16223,7 +16226,7 @@
         <v>0</v>
       </c>
       <c r="JQ28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:295">
@@ -16236,7 +16239,7 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>4</v>
       </c>
       <c r="H29">
@@ -16408,7 +16411,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>373</v>
@@ -16636,7 +16639,7 @@
         <v>487</v>
       </c>
       <c r="IN29">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO29">
         <v>1</v>
@@ -16693,7 +16696,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16702,7 +16705,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO29">
         <v>0</v>
@@ -16711,7 +16714,7 @@
         <v>0</v>
       </c>
       <c r="JQ29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:295">
@@ -16724,11 +16727,11 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
-        <v>4</v>
+      <c r="G30">
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -16737,7 +16740,7 @@
         <v>2.6</v>
       </c>
       <c r="K30">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -16896,7 +16899,7 @@
         <v>41</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>373</v>
@@ -17178,7 +17181,7 @@
         <v>487</v>
       </c>
       <c r="IN30">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO30">
         <v>1</v>
@@ -17229,7 +17232,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -17238,7 +17241,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO30">
         <v>0</v>
@@ -17247,7 +17250,7 @@
         <v>0</v>
       </c>
       <c r="JQ30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR30" t="s">
         <v>504</v>
@@ -17314,7 +17317,10 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>333</v>
+      </c>
+      <c r="G31">
         <v>4</v>
       </c>
       <c r="H31">
@@ -17471,7 +17477,7 @@
         <v>0</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>373</v>
@@ -17663,7 +17669,7 @@
         <v>487</v>
       </c>
       <c r="IN31">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO31">
         <v>1</v>
@@ -17714,7 +17720,7 @@
         <v>0</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17723,7 +17729,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO31">
         <v>0</v>
@@ -17732,7 +17738,7 @@
         <v>0</v>
       </c>
       <c r="JQ31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:295">
@@ -17745,11 +17751,8 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>4</v>
-      </c>
-      <c r="G32" t="s">
-        <v>333</v>
       </c>
       <c r="H32">
         <v>130</v>
@@ -17905,7 +17908,7 @@
         <v>0</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>373</v>
@@ -18097,7 +18100,7 @@
         <v>487</v>
       </c>
       <c r="IN32">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO32">
         <v>1</v>
@@ -18148,7 +18151,7 @@
         <v>0</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ32">
         <v>0</v>
@@ -18157,7 +18160,7 @@
         <v>0</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO32">
         <v>0</v>
@@ -18166,7 +18169,7 @@
         <v>0</v>
       </c>
       <c r="JQ32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:295">
@@ -18179,11 +18182,11 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
-        <v>4</v>
+      <c r="G33">
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -18192,7 +18195,7 @@
         <v>2.6</v>
       </c>
       <c r="K33">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -18351,7 +18354,7 @@
         <v>39</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>373</v>
@@ -18684,7 +18687,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18693,7 +18696,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO33">
         <v>0</v>
@@ -18702,7 +18705,7 @@
         <v>0</v>
       </c>
       <c r="JQ33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:295">
@@ -18715,11 +18718,11 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
-        <v>3</v>
+      <c r="G34">
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -18728,7 +18731,7 @@
         <v>2.6</v>
       </c>
       <c r="K34">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -18887,7 +18890,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>373</v>
@@ -19169,7 +19172,7 @@
         <v>487</v>
       </c>
       <c r="IN34">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO34">
         <v>1</v>
@@ -19220,7 +19223,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -19229,7 +19232,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO34">
         <v>0</v>
@@ -19238,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="JQ34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR34" t="s">
         <v>505</v>
@@ -19305,11 +19308,11 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s">
         <v>333</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
       </c>
       <c r="H35">
         <v>100</v>
@@ -19465,7 +19468,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>373</v>
@@ -19657,7 +19660,7 @@
         <v>487</v>
       </c>
       <c r="IN35">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO35">
         <v>1</v>
@@ -19708,7 +19711,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19717,7 +19720,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO35">
         <v>0</v>
@@ -19726,7 +19729,7 @@
         <v>0</v>
       </c>
       <c r="JQ35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:295">
@@ -19739,11 +19742,8 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>4</v>
-      </c>
-      <c r="G36" t="s">
-        <v>333</v>
       </c>
       <c r="H36">
         <v>130</v>
@@ -19899,7 +19899,7 @@
         <v>0</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>373</v>
@@ -20091,7 +20091,7 @@
         <v>487</v>
       </c>
       <c r="IN36">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO36">
         <v>1</v>
@@ -20142,7 +20142,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -20151,7 +20151,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO36">
         <v>0</v>
@@ -20160,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="JQ36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:295">
@@ -20173,7 +20173,7 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>4</v>
       </c>
       <c r="H37">
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>373</v>
@@ -20522,7 +20522,7 @@
         <v>487</v>
       </c>
       <c r="IN37">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO37">
         <v>1</v>
@@ -20573,7 +20573,7 @@
         <v>0</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ37">
         <v>0</v>
@@ -20582,7 +20582,7 @@
         <v>0</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO37">
         <v>0</v>
@@ -20591,7 +20591,7 @@
         <v>0</v>
       </c>
       <c r="JQ37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:295">
@@ -20604,7 +20604,7 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>3</v>
       </c>
       <c r="H38">
@@ -20761,7 +20761,7 @@
         <v>0</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>373</v>
@@ -21004,7 +21004,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -21013,7 +21013,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO38">
         <v>0</v>
@@ -21022,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="JQ38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:295">
@@ -21035,11 +21035,11 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
-        <v>4</v>
+      <c r="G39">
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -21048,7 +21048,7 @@
         <v>2.6</v>
       </c>
       <c r="K39">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -21192,7 +21192,7 @@
         <v>0</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>373</v>
@@ -21384,7 +21384,7 @@
         <v>487</v>
       </c>
       <c r="IN39">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO39">
         <v>1</v>
@@ -21435,7 +21435,7 @@
         <v>0</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21444,7 +21444,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO39">
         <v>0</v>
@@ -21453,7 +21453,7 @@
         <v>0</v>
       </c>
       <c r="JQ39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:295">
@@ -21466,7 +21466,7 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>3</v>
       </c>
       <c r="H40">
@@ -21638,7 +21638,7 @@
         <v>52</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>373</v>
@@ -21920,7 +21920,7 @@
         <v>487</v>
       </c>
       <c r="IN40">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO40">
         <v>1</v>
@@ -21971,7 +21971,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -21980,7 +21980,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO40">
         <v>0</v>
@@ -21989,7 +21989,7 @@
         <v>0</v>
       </c>
       <c r="JQ40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22022,7 +22022,7 @@
         <v>508</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>509</v>
@@ -22141,7 +22141,7 @@
         <v>487</v>
       </c>
       <c r="S2">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="T2">
         <v>1</v>
